--- a/src/translations/excel/translations.xlsx
+++ b/src/translations/excel/translations.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,9 +412,6 @@
       <c r="C1" t="str">
         <v>fi</v>
       </c>
-      <c r="D1" t="str">
-        <v>ar</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -426,9 +423,6 @@
       <c r="C2" t="str">
         <v>Ajatuksia, oppimista ja näkökulmia suunnittelujohtajuuteen, tuotehallintaan ja luovuuden ja teknologian risteyskohtaan.</v>
       </c>
-      <c r="D2" t="str">
-        <v>أفكار وتعلم ووجهات نظر حول قيادة التصميم، وإدارة المنتجات، وتقاطع الإبداع والتكنولوجيا.</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -440,9 +434,6 @@
       <c r="C3" t="str">
         <v>Blogi &amp; Näkemykset</v>
       </c>
-      <c r="D3" t="str">
-        <v>المدونة والرؤى</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -454,9 +445,6 @@
       <c r="C4" t="str">
         <v>Määrittele</v>
       </c>
-      <c r="D4" t="str">
-        <v>حدد</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -468,9 +456,6 @@
       <c r="C5" t="str">
         <v>Analysoi oivallukset haasteen määrittelemiseksi</v>
       </c>
-      <c r="D5" t="str">
-        <v>تحليل الرؤى لتحديد نطاق التحدي</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -482,9 +467,6 @@
       <c r="C6" t="str">
         <v>Toimita</v>
       </c>
-      <c r="D6" t="str">
-        <v>سلّم</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -496,9 +478,6 @@
       <c r="C7" t="str">
         <v>Testaa käyttäjillä ja iteroi</v>
       </c>
-      <c r="D7" t="str">
-        <v>اختبار مع المستخدمين والتكرار</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -510,9 +489,6 @@
       <c r="C8" t="str">
         <v>Kehitä</v>
       </c>
-      <c r="D8" t="str">
-        <v>طور</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -524,9 +500,6 @@
       <c r="C9" t="str">
         <v>Luo ratkaisukonsepteja</v>
       </c>
-      <c r="D9" t="str">
-        <v>إنشاء مفاهيم الحلول</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -538,9 +511,6 @@
       <c r="C10" t="str">
         <v>Löydä</v>
       </c>
-      <c r="D10" t="str">
-        <v>اكتشف</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -552,9 +522,6 @@
       <c r="C11" t="str">
         <v>Tutkimus käyttäjien tarpeista ja kipupisteistä</v>
       </c>
-      <c r="D11" t="str">
-        <v>بحث احتياجات المستخدمين ونقاط الألم</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -566,9 +533,6 @@
       <c r="C12" t="str">
         <v>Suunnitteluprosessi</v>
       </c>
-      <c r="D12" t="str">
-        <v>عملية التصميم</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -580,9 +544,6 @@
       <c r="C13" t="str">
         <v>Yhteistyön työnkulkualustan ytimessä on sitoutuminen luovuuteen, yhteenliitettävyyteen ja reaaliaikaiseen tiimityöhön. Tämä alusta on suunniteltu yksinkertaistamaan elävää yhteistyötä, parantamaan viestintää ja auttamaan tiimejä toimittamaan sisältöä tehokkaammin laitteiden, aikavyöhykkeiden ja sijaintien välillä.</v>
       </c>
-      <c r="D13" t="str">
-        <v>في قلب منصة سير عمل التعاون يوجد التزام بالإبداع والترابط والعمل الجماعي في الوقت الفعلي. تم تصميم هذه المنصة لتبسيط التعاون المباشر، وتحسين التواصل، ومساعدة الفرق على تسليم المحتوى بكفاءة أكبر عبر الأجهزة والمناطق الزمنية والمواقع.</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -594,9 +555,6 @@
       <c r="C14" t="str">
         <v>Tavoitteet</v>
       </c>
-      <c r="D14" t="str">
-        <v>الأهداف</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -608,9 +566,6 @@
       <c r="C15" t="str">
         <v>Projektityyppi</v>
       </c>
-      <c r="D15" t="str">
-        <v>نوع المشروع</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -622,9 +577,6 @@
       <c r="C16" t="str">
         <v>Roolit</v>
       </c>
-      <c r="D16" t="str">
-        <v>الأدوار</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -636,9 +588,6 @@
       <c r="C17" t="str">
         <v>Aikataulu</v>
       </c>
-      <c r="D17" t="str">
-        <v>الجدول الزمني</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -650,9 +599,6 @@
       <c r="C18" t="str">
         <v>Yhteistyön työnkulkualusta</v>
       </c>
-      <c r="D18" t="str">
-        <v>منصة سير عمل التعاون</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -664,9 +610,6 @@
       <c r="C19" t="str">
         <v>Työkalut</v>
       </c>
-      <c r="D19" t="str">
-        <v>الأدوات</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -678,9 +621,6 @@
       <c r="C20" t="str">
         <v/>
       </c>
-      <c r="D20" t="str">
-        <v/>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -692,9 +632,6 @@
       <c r="C21" t="str">
         <v/>
       </c>
-      <c r="D21" t="str">
-        <v/>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -706,9 +643,6 @@
       <c r="C22" t="str">
         <v/>
       </c>
-      <c r="D22" t="str">
-        <v/>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -720,9 +654,6 @@
       <c r="C23" t="str">
         <v>Kaikki oikeudet pidätetään.</v>
       </c>
-      <c r="D23" t="str">
-        <v>جميع الحقوق محفوظة.</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -734,9 +665,6 @@
       <c r="C24" t="str">
         <v/>
       </c>
-      <c r="D24" t="str">
-        <v/>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -748,9 +676,6 @@
       <c r="C25" t="str">
         <v/>
       </c>
-      <c r="D25" t="str">
-        <v/>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -762,9 +687,6 @@
       <c r="C26" t="str">
         <v>Hei siellä! Olen Ali, intohimoinen unelmoija ja luova sielu, joka uskoo suunnittelun voimaan muuttaa ideat merkityksellisiksi kokemuksiksi. Matkani useilla mantereilla – Damaskoksesta Helsinkiin – on opettanut minulle, että hyvä suunnittelu on muutakin kuin estetiikkaa; se koskettaa sydämiä ja ratkaisee todellisia ongelmia.</v>
       </c>
-      <c r="D26" t="str">
-        <v>مرحباً! أنا علي، حالم شغوف وروح مبدعة يؤمن بقوة التصميم في تحويل الأفكار إلى تجارب هادفة. مع رحلتي عبر القارات - من دمشق إلى هلسنكي - تعلمت أن التصميم الرائع يتجاوز الجماليات؛ إنه يتعلق بلمس القلوب وحل المشكلات الحقيقية.</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -776,9 +698,6 @@
       <c r="C27" t="str">
         <v>Jokaisella pikselillä on tarkoitus, jokainen vuorovaikutus kertoo tarinan.</v>
       </c>
-      <c r="D27" t="str">
-        <v>لكل بكسل غرض، ولكل تفاعل قصة.</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -790,9 +709,6 @@
       <c r="C28" t="str">
         <v>Viimeisen vuosikymmenen aikana olen saanut iloa lukuisten digitaalisten tuotteiden elävöittämisestä, aina Double Diamond -lähestymistavan ohjaamana mutta omalla luovalla tyylilläni värittämänä. Uskon, että teknologiasta voi tehdä inhimillisempää, saavutettavampaa ja ehkä jopa hieman taianomaista.</v>
       </c>
-      <c r="D28" t="str">
-        <v>على مدار العقد الماضي، استمتعت ببث الحياة في عدد لا يحصى من المنتجات الرقمية، دائمًا بتوجيه من نهج Double Diamond ولكن بلمسة إبداعية خاصة بي. أؤمن بجعل التكنولوجيا أكثر إنسانية وسهولة في الوصول، وربما حتى سحرية قليلاً.</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -804,9 +720,6 @@
       <c r="C29" t="str">
         <v>Kun en suunnittele, löydät minut tutkimasta uusia teknologioita, jakamasta tietoa kollegoiden kanssa, tai yksinkertaisesti unelmoimasta seuraavasta suuresta ideasta, joka voisi tehdä jonkun digitaalisesta elämästä hieman parempaa.</v>
       </c>
-      <c r="D29" t="str">
-        <v>عندما لا أقوم بالتصميم، ستجدني أستكشف تقنيات جديدة، أشارك المعرفة مع زملائي المصممين، أو ببساطة أحلم بالفكرة التالية الكبيرة التي يمكن أن تجعل حياة شخص ما الرقمية أفضل قليلاً.</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -818,9 +731,6 @@
       <c r="C30" t="str">
         <v>Digitaalisten unelmien muuttaminen todellisuudeksi</v>
       </c>
-      <c r="D30" t="str">
-        <v>تحويل الأحلام الرقمية إلى حقيقة</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -832,9 +742,6 @@
       <c r="C31" t="str">
         <v>Näytä Portfolio</v>
       </c>
-      <c r="D31" t="str">
-        <v>عرض المشاريع</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -846,9 +753,6 @@
       <c r="C32" t="str">
         <v>Olen suunnittelija ja kehittäjä, joka rakastaa kauniiden digitaalisten kokemusten luomista.</v>
       </c>
-      <c r="D32" t="str">
-        <v>أنا مصمم ومطور أحب إنشاء تجارب رقمية جميلة.</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -860,9 +764,6 @@
       <c r="C33" t="str">
         <v>Hei, olen Ali Al-Zuhairi</v>
       </c>
-      <c r="D33" t="str">
-        <v>مرحباً، أنا علي الزهيري</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -874,9 +775,6 @@
       <c r="C34" t="str">
         <v>Vahvuudet &amp; Taidot</v>
       </c>
-      <c r="D34" t="str">
-        <v>المهارات والقدرات</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -888,9 +786,6 @@
       <c r="C35" t="str">
         <v>Suositukset</v>
       </c>
-      <c r="D35" t="str">
-        <v>الشهادات</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -902,9 +797,6 @@
       <c r="C36" t="str">
         <v>Nykyinen tehtävä</v>
       </c>
-      <c r="D36" t="str">
-        <v>المنصب الحالي</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -916,9 +808,6 @@
       <c r="C37" t="str">
         <v>Varhaisemmat tehtävät</v>
       </c>
-      <c r="D37" t="str">
-        <v>المناصب المبكرة</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -930,9 +819,6 @@
       <c r="C38" t="str">
         <v>Aikaisemmat tehtävät</v>
       </c>
-      <c r="D38" t="str">
-        <v>المناصب السابقة</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -944,9 +830,6 @@
       <c r="C39" t="str">
         <v>Työkokemus</v>
       </c>
-      <c r="D39" t="str">
-        <v>الخبرة المهنية</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -958,9 +841,6 @@
       <c r="C40" t="str">
         <v>Mobiilisovellus, joka on suunniteltu virtaviivaistamaan työnhakua – erityisesti paikallisiin, osa-aikaisiin ja viikonlopputöihin. Luotu tekemään työnhausta nopeampaa, helpompaa ja tehokkaampaa ihmisille, jotka etsivät lisätuloja.</v>
       </c>
-      <c r="D40" t="str">
-        <v>تطبيق للهاتف المحمول مصمم لتبسيط عمليات البحث عن الوظائف - خاصة للعمل المحلي، بدوام جزئي، وفي عطلة نهاية الأسبوع. تم إنشاؤه لجعل البحث عن وظيفة أسرع وأسهل وأكثر كفاءة للأشخاص الذين يبحثون عن فرص دخل إضافية.</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -972,120 +852,93 @@
       <c r="C41" t="str">
         <v>Työnhakusovellus</v>
       </c>
-      <c r="D41" t="str">
-        <v>تطبيق البحث عن وظائف</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>languageSwitcher.ar</v>
+        <v>languageSwitcher.en</v>
       </c>
       <c r="B42" t="str">
-        <v>Arabic</v>
+        <v>English</v>
       </c>
       <c r="C42" t="str">
-        <v>Arabia</v>
-      </c>
-      <c r="D42" t="str">
-        <v>العربية</v>
+        <v>Englanti</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>languageSwitcher.en</v>
+        <v>languageSwitcher.fi</v>
       </c>
       <c r="B43" t="str">
-        <v>English</v>
+        <v>Finnish</v>
       </c>
       <c r="C43" t="str">
-        <v>Englanti</v>
-      </c>
-      <c r="D43" t="str">
-        <v>الإنجليزية</v>
+        <v>Suomi</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>languageSwitcher.fi</v>
+        <v>languageSwitcher.title</v>
       </c>
       <c r="B44" t="str">
-        <v>Finnish</v>
+        <v>Language</v>
       </c>
       <c r="C44" t="str">
-        <v>Suomi</v>
-      </c>
-      <c r="D44" t="str">
-        <v>الفنلندية</v>
+        <v>Kieli</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>languageSwitcher.title</v>
+        <v>nav.blog</v>
       </c>
       <c r="B45" t="str">
-        <v>Language</v>
+        <v>Blog</v>
       </c>
       <c r="C45" t="str">
-        <v>Kieli</v>
-      </c>
-      <c r="D45" t="str">
-        <v>اللغة</v>
+        <v>Blogi</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>nav.blog</v>
+        <v>nav.home</v>
       </c>
       <c r="B46" t="str">
-        <v>Blog</v>
+        <v>Home</v>
       </c>
       <c r="C46" t="str">
-        <v>Blogi</v>
-      </c>
-      <c r="D46" t="str">
-        <v>المدونة</v>
+        <v>Etusivu</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>nav.home</v>
+        <v>nav.portfolio</v>
       </c>
       <c r="B47" t="str">
-        <v>Home</v>
+        <v>Portfolio</v>
       </c>
       <c r="C47" t="str">
-        <v>Etusivu</v>
-      </c>
-      <c r="D47" t="str">
-        <v>الرئيسية</v>
+        <v>Portfolio</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>nav.portfolio</v>
+        <v>nav.prompts</v>
       </c>
       <c r="B48" t="str">
-        <v>Portfolio</v>
+        <v>Prompts</v>
       </c>
       <c r="C48" t="str">
-        <v>Portfolio</v>
-      </c>
-      <c r="D48" t="str">
-        <v>المشاريع</v>
+        <v>Kehotteet</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>nav.prompts</v>
+        <v>portfolio.cases.accessibility</v>
       </c>
       <c r="B49" t="str">
-        <v>Prompts</v>
+        <v>Accessibility Portfolio</v>
       </c>
       <c r="C49" t="str">
-        <v>Kehotteet</v>
-      </c>
-      <c r="D49" t="str">
-        <v>الأوامر</v>
+        <v>Saavutettavuusportfolio</v>
       </c>
     </row>
     <row r="50">
@@ -1098,22 +951,16 @@
       <c r="C50" t="str">
         <v>Yhteistyö &amp; Johtajuus</v>
       </c>
-      <c r="D50" t="str">
-        <v>التعاون والقيادة</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
         <v>portfolio.cases.jobseeking</v>
       </c>
       <c r="B51" t="str">
-        <v>Career Development</v>
+        <v>Job Seeking</v>
       </c>
       <c r="C51" t="str">
-        <v>Urakehitys</v>
-      </c>
-      <c r="D51" t="str">
-        <v>التطور المهني</v>
+        <v>Työnhaku</v>
       </c>
     </row>
     <row r="52">
@@ -1126,9 +973,6 @@
       <c r="C52" t="str">
         <v>Kaikki Projektit</v>
       </c>
-      <c r="D52" t="str">
-        <v>جميع المشاريع</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -1140,9 +984,6 @@
       <c r="C53" t="str">
         <v>Kokoelma kehotteitani erilaisille luoville tekoälytyökaluille</v>
       </c>
-      <c r="D53" t="str">
-        <v>مجموعة من الأوامر التي صممتها لمختلف أدوات الذكاء الاصطناعي الإبداعية</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -1154,9 +995,6 @@
       <c r="C54" t="str">
         <v>Kehotekokoelma</v>
       </c>
-      <c r="D54" t="str">
-        <v>معرض الأوامر</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -1168,9 +1006,6 @@
       <c r="C55" t="str">
         <v>Värikäs teema</v>
       </c>
-      <c r="D55" t="str">
-        <v>نمط ملون</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -1182,9 +1017,6 @@
       <c r="C56" t="str">
         <v>Tumma teema</v>
       </c>
-      <c r="D56" t="str">
-        <v>نمط داكن</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1196,13 +1028,10 @@
       <c r="C57" t="str">
         <v>Vaalea teema</v>
       </c>
-      <c r="D57" t="str">
-        <v>نمط فاتح</v>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D57"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C57"/>
   </ignoredErrors>
 </worksheet>
 </file>